--- a/2022/Symphony/Others/RK Mobile King Imei.xlsx
+++ b/2022/Symphony/Others/RK Mobile King Imei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Realme" sheetId="1" r:id="rId1"/>
@@ -206,13 +206,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +512,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K30" sqref="J29:K30"/>
     </sheetView>
   </sheetViews>
@@ -982,22 +982,22 @@
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1200,20 +1200,20 @@
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
